--- a/数据整理/stocks/A股/上证主板/603986-兆易创新.xlsx
+++ b/数据整理/stocks/A股/上证主板/603986-兆易创新.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6148,7 +6149,6 @@
           <t>汇安丰裕灵活配置混合C</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
           <t>87.40</t>
@@ -6164,6 +6164,8834 @@
       </c>
       <c r="H79" t="n">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H232"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>281.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>28.7969</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>171.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15.6625</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>147.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>14.6591</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>162.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>14.3189</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>171.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>10.4065</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>112.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>8.4057</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>7.2456</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>7.2298</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>54.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.5302</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>36.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.4453</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方成份精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.4311</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.5567</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>56.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.5008</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.2638</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515000</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>58.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.0951</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.9155</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011256</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿光一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>57.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.7181</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5662</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.4810</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.4658</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4324</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.3431</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.3159</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.3031</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.2480</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.42</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.2212</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.1645</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.1089</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>19.42</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.0972</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.0328</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.0210</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.9600</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>13.33</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.9358</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8833</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.8739</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.8491</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>24.73</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.8136</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009990</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>26.43</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.7903</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>161031</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国中证工业4.0指数</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>14.16</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.7519</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.6731</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6578</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.6220</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.6061</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.5698</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.5641</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159997</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘中证电子ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>17.22</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.5424</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011257</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿光一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>17.98</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5394</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5342</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5081</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4973</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4473</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4396</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4130</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4089</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>515260</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华宝中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3958</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3720</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>516050</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银瑞信中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3541</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3535</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3528</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3416</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>97.06</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3399</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3331</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159939</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发中证全指信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>18.59</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3290</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3175</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3107</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3035</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2929</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2887</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2817</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2777</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2647</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2600</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2537</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>79.06</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2455</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2447</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2411</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2363</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2276</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2242</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2240</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002064</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华富产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008592</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>天弘沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2132</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2012</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>515320</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华安中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>77.96</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1817</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1815</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>98.23</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1759</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001345</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>53.38</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>160626</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009991</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1489</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>002597</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>兴业成长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1411</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>002272</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>新华科技创新主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1121</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>008878</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>国联安新蓝筹红利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>008056</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>002537</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>007305</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>国联安新科技混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>66.87</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>000512</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>国泰沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>008593</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>天弘沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>000589</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>光大保德信银发商机主题混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>002411</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>004558</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>004737</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>31.12</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>51.38</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>516330</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>97.36</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>74.72</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>008057</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>74.72</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>61.57</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>72.92</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>72.92</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>001347</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>53.38</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>001709</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>华富物联世界灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>37.49</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>61.13</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>008212</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>001731</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>001732</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>009595</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>山西证券裕盛一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>37.49</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>210011</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>165806</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>东吴沪深300指数A</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>004747</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>31.12</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>59.24</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>59.24</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
+        <v>0</v>
+      </c>
+      <c r="H230" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>165810</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>东吴沪深300指数C</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G231" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603986-兆易创新.xlsx
+++ b/数据整理/stocks/A股/上证主板/603986-兆易创新.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14997,4 +14998,4924 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H129"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>253.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>23.2780</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>164.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.5616</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>142.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10.1538</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>120.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.2673</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>138.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7.2581</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6.0178</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>61.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.0957</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.6575</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>26.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.5312</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.4653</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>48.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.3994</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>47.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.3640</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>46.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.3435</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>41.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.1356</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.9193</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.8674</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.7535</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>30.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.6135</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.3236</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1328</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0152</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011665</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>30.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9778</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9681</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9350</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9274</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8154</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7862</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7587</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6605</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5925</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011486</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5408</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5362</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5348</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4889</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4836</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4578</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4297</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4284</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002064</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华富产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.68</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4078</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10.57</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3858</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3718</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3048</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2872</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11.82</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2754</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2687</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2510</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2499</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2478</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2372</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2263</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>75.55</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2174</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2174</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2174</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2172</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2159</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2001</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>74.37</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1655</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1623</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>516260</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏中证物联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002272</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>新华科技创新主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1170</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007305</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国联安新科技混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>450008</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国富沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002670</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005870</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏华沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>519197</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>万家颐达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011487</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>博时创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>82.36</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>000589</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>光大保德信银发商机主题混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010938</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>30.18</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>72.08</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004558</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012696</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>39.93</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>35.77</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>012221</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>67.97</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>159897</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>建信中证物联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>96.89</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>49.62</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>002671</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010939</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001709</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华富物联世界灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>012697</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>39.93</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>75.55</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>012222</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>67.97</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>006535</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>27.12</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>006536</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>27.12</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603986-兆易创新.xlsx
+++ b/数据整理/stocks/A股/上证主板/603986-兆易创新.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19918,4 +19919,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>128</v>
+      </c>
+      <c r="D2" t="n">
+        <v>115.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>231</v>
+      </c>
+      <c r="D3" t="n">
+        <v>180.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>78</v>
+      </c>
+      <c r="D4" t="n">
+        <v>130.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="n">
+        <v>155.27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603986-兆易创新.xlsx
+++ b/数据整理/stocks/A股/上证主板/603986-兆易创新.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>259</v>
+        <v>158</v>
       </c>
       <c r="D2" t="n">
-        <v>193.68</v>
+        <v>95.13</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="D3" t="n">
-        <v>194.4</v>
+        <v>193.68</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D4" t="n">
-        <v>199.42</v>
+        <v>194.4</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>128</v>
+        <v>277</v>
       </c>
       <c r="D5" t="n">
-        <v>115.77</v>
+        <v>199.42</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>231</v>
+        <v>128</v>
       </c>
       <c r="D6" t="n">
-        <v>180.79</v>
+        <v>115.77</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="D7" t="n">
-        <v>130.17</v>
+        <v>180.79</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>78</v>
+      </c>
+      <c r="D8" t="n">
+        <v>130.17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>70</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>155.27</v>
       </c>
     </row>
@@ -600,6 +617,6064 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H159"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>239.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.2626</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>142.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.2543</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>177.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9.9135</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安半导体ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>122.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.3735</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>112.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.2117</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家行业优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.6832</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.6241</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7003</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014143</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6038</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>38.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5794</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5629</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009872</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5515</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>33.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5427</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014639</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>53.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5362</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.4684</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>32.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.4324</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>29.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.3488</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.3099</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0877</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>31.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0716</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0234</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0051</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515000</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>31.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9924</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9660</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6857</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6110</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5516</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5337</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5060</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华富卓越成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4734</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012342</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发瑞泽精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4306</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>516640</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4284</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4050</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010080</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧优势成长三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4018</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002064</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华富产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3639</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3260</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3026</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159939</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发中证全指信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2976</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159997</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天弘中证电子ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2865</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2606</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004231</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2585</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2401</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012650</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2361</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2345</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2343</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>506007</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发科创板两年定开混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2169</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2128</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2018</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009873</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1961</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>560800</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏扬中证数字经济主题ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014325</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1788</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012651</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1759</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1686</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>515260</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华宝中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>516050</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>工银科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富策略增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1433</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1396</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013000</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发盛泽一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>78.76</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014640</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>74.29</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010876</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>浙商智选先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>73.83</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>561100</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>富国中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>014706</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华富匠心明选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>580002</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>161025</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富国中证移动互联网指数A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>516350</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>易方达中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>160626</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>014376</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>东吴新能源汽车股票A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>013446</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>515320</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华安中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>014707</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华富匠心明选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>013445</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>004260</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>德邦稳盈增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>159732</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华夏国证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>014085</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>78.76</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010878</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>诺德优势产业混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011330</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>鹏华精选群英一年持有期灵活配置混合（MOM）</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>561310</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>国泰中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>014193</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>015373</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>浙商智选新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>516260</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华夏中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>015337</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>012320</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>012343</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>广发瑞泽精选混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>562950</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>易方达中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>159896</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>南方中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>159779</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>招商中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>001886</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>012696</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>000589</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>光大保德信银发商机主题混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>561600</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>平安中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>96.30</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>014194</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>014377</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>东吴新能源汽车股票C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>012319</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>516330</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>96.63</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>159769</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>银华中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>014326</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>159778</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>鹏华中证工业互联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>97.29</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>013001</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>广发盛泽一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>015374</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>浙商智选新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>010877</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>浙商智选先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>159733</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>景顺中证消费电子ETF</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>40.73</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>159895</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>易方达中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>160636</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>鹏华中证移动互联网指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>014025</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>华富卓越成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>159701</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>招商中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>012697</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>001709</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>华富物联世界灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>015336</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>012040</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>015676</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>鹏华中证移动互联网指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>014173</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>富国中证移动互联网指数C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>011241</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10489,7 +16564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20877,7 +26952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -31455,7 +37530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -36375,7 +42450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -45203,7 +51278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -48216,7 +54291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
